--- a/DMSNewVSale_2025-10-18_21-37.xlsx
+++ b/DMSNewVSale_2025-10-18_21-37.xlsx
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t>RANCIF 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
@@ -4979,7 +4982,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4989,14 +4992,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5005,14 +5008,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5022,14 +5025,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5038,14 +5041,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5055,14 +5058,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5071,31 +5074,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5104,7 +5107,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5117,15 +5120,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5137,14 +5140,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5154,14 +5157,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5170,14 +5173,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5203,14 +5206,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5220,14 +5223,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5236,14 +5239,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5253,14 +5256,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5269,28 +5272,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5309,7 +5312,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5319,11 +5322,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5335,28 +5338,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5368,7 +5371,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5381,15 +5384,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5401,31 +5404,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5441,7 +5444,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5451,11 +5454,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5484,11 +5487,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5500,14 +5503,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5517,14 +5520,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5533,14 +5536,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5550,14 +5553,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5573,7 +5576,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5583,14 +5586,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5599,14 +5602,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5616,14 +5619,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5632,14 +5635,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5649,11 +5652,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5665,14 +5668,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5682,14 +5685,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5698,14 +5701,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5715,14 +5718,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5731,14 +5734,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5748,14 +5751,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5764,14 +5767,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5781,11 +5784,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>22</v>
@@ -5797,14 +5800,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5814,11 +5817,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>22</v>
@@ -5830,31 +5833,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5870,7 +5873,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5880,14 +5883,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>284</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5903,7 +5906,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5917,10 +5920,10 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>22</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5929,7 +5932,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5946,14 +5949,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>257</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5962,14 +5965,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5979,14 +5982,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>63</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5995,14 +5998,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6012,14 +6015,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6045,14 +6048,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>335</v>
+        <v>206</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>360</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6061,7 +6064,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6078,14 +6081,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6094,14 +6097,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6111,14 +6114,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>170</v>
+        <v>363</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>22</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6134,7 +6137,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6144,14 +6147,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6167,7 +6170,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6177,14 +6180,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6193,14 +6196,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6210,11 +6213,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>22</v>
@@ -6233,7 +6236,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6243,14 +6246,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6276,14 +6279,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6299,7 +6302,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6309,14 +6312,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6325,14 +6328,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6342,11 +6345,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>22</v>
@@ -6358,14 +6361,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6379,10 +6382,10 @@
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>379</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6391,14 +6394,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6408,51 +6411,84 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
+        <v>380</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>381</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>382</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>42</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>383</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
         <v>231</v>
       </c>
-      <c t="s" r="Q146" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" ht="26.25" customHeight="1">
-      <c r="N147" s="13">
-        <v>9681.8199999999997</v>
-      </c>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>383</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
+      <c t="s" r="Q147" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" ht="25.5" customHeight="1">
+      <c r="N148" s="13">
+        <v>9705.8199999999997</v>
+      </c>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
         <v>384</v>
       </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
         <v>385</v>
       </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>386</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7161,10 +7197,15 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="N147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="N148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
